--- a/training/output/CNN/P/P1_P2.xlsx
+++ b/training/output/CNN/P/P1_P2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9221491228070176</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="B2" t="n">
-        <v>1.65776995399542</v>
+        <v>1.72000789642334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.5625</v>
       </c>
       <c r="B3" t="n">
-        <v>1.481031723189772</v>
+        <v>1.516438961029053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.993421052631579</v>
+        <v>0.6274999999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1.440758730235853</v>
+        <v>1.438728809356689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.7975</v>
       </c>
       <c r="B5" t="n">
-        <v>1.420902155993278</v>
+        <v>1.368277132511139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9879385964912281</v>
+        <v>0.8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.428892284108881</v>
+        <v>1.307399243116379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="B7" t="n">
-        <v>1.417217143794947</v>
+        <v>1.252110540866852</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.8933333333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>1.454599915889272</v>
+        <v>1.185150295495987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9802631578947368</v>
+        <v>0.8949999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1.435765626137717</v>
+        <v>1.11845526099205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9857456140350878</v>
+        <v>0.8724999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1.402094313972875</v>
+        <v>1.120015412569046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9041666666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>1.439451575279236</v>
+        <v>1.037576243281364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9175</v>
       </c>
       <c r="B12" t="n">
-        <v>1.425474859120553</v>
+        <v>0.9827410131692886</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9835526315789473</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>1.435766703204105</v>
+        <v>0.9619480669498444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9058333333333333</v>
       </c>
       <c r="B14" t="n">
-        <v>1.412366089067961</v>
+        <v>0.943123072385788</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9258333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>1.40453396972857</v>
+        <v>0.9022567868232727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9141666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.404093405656647</v>
+        <v>0.8707929700613022</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9241666666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>1.397299737261053</v>
+        <v>0.8542020618915558</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9441666666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>1.398277648708277</v>
+        <v>0.845544621348381</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>1.423012996974744</v>
+        <v>0.8442058116197586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9283333333333335</v>
       </c>
       <c r="B20" t="n">
-        <v>1.477382517697518</v>
+        <v>0.8164747655391693</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9349999999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>1.434397419293721</v>
+        <v>0.8154705464839935</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>1.42902255894845</v>
+        <v>0.8429781645536423</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9291666666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>1.403704024197763</v>
+        <v>0.8187001347541809</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9208333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>1.409968056176838</v>
+        <v>0.804889902472496</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9408333333333333</v>
       </c>
       <c r="B25" t="n">
-        <v>1.418298725496259</v>
+        <v>0.8033159375190735</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9391666666666666</v>
       </c>
       <c r="B26" t="n">
-        <v>1.395831593295984</v>
+        <v>0.8068518936634064</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>1.393445981176276</v>
+        <v>0.7846079915761948</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9483333333333333</v>
       </c>
       <c r="B28" t="n">
-        <v>1.4109043656734</v>
+        <v>0.7805651873350143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B29" t="n">
-        <v>1.405441556060523</v>
+        <v>0.7804439067840576</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9316666666666666</v>
       </c>
       <c r="B30" t="n">
-        <v>1.401618305005525</v>
+        <v>0.782075971364975</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.95</v>
       </c>
       <c r="B31" t="n">
-        <v>1.393833210593776</v>
+        <v>0.7528780698776245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9383333333333334</v>
       </c>
       <c r="B32" t="n">
-        <v>1.394018058191266</v>
+        <v>0.7674399465322495</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9375</v>
       </c>
       <c r="B33" t="n">
-        <v>1.394072279595492</v>
+        <v>0.7826128453016281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1.396592140197754</v>
+        <v>0.7577978819608688</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.945</v>
       </c>
       <c r="B35" t="n">
-        <v>1.423647757162128</v>
+        <v>0.7672651559114456</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B36" t="n">
-        <v>1.421648500258462</v>
+        <v>0.7592257410287857</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B37" t="n">
-        <v>1.396209281787538</v>
+        <v>0.7605566829442978</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9508333333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>1.392656138068751</v>
+        <v>0.7467028200626373</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9358333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>1.393026958432114</v>
+        <v>0.7529065161943436</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9408333333333333</v>
       </c>
       <c r="B40" t="n">
-        <v>1.402051110016672</v>
+        <v>0.752413421869278</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9374999999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>1.401862407985486</v>
+        <v>0.7439991384744644</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9575</v>
       </c>
       <c r="B42" t="n">
-        <v>1.394595194281193</v>
+        <v>0.7436058670282364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9583333333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>1.397937711916472</v>
+        <v>0.7487529963254929</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9508333333333334</v>
       </c>
       <c r="B44" t="n">
-        <v>1.410457531611125</v>
+        <v>0.7445637881755829</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9483333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>1.395921201036687</v>
+        <v>0.7520527988672256</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>1.395787933416534</v>
+        <v>0.7355868816375732</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B47" t="n">
-        <v>1.393546209000704</v>
+        <v>0.7389206439256668</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.993421052631579</v>
+        <v>0.945</v>
       </c>
       <c r="B48" t="n">
-        <v>1.410799695734392</v>
+        <v>0.7354765385389328</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9525</v>
       </c>
       <c r="B49" t="n">
-        <v>1.426229939126132</v>
+        <v>0.733998715877533</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9366666666666666</v>
       </c>
       <c r="B50" t="n">
-        <v>1.39442299332535</v>
+        <v>0.7408698350191116</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.993421052631579</v>
+        <v>0.8941666666666667</v>
       </c>
       <c r="B51" t="n">
-        <v>1.393782791338469</v>
+        <v>0.9057226926088333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>1.415193858899568</v>
+        <v>0.7576052695512772</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9575</v>
       </c>
       <c r="B53" t="n">
-        <v>1.396578054679068</v>
+        <v>0.7460982203483582</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.415717131213138</v>
+        <v>0.7383468300104141</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9425</v>
       </c>
       <c r="B55" t="n">
-        <v>1.414883785080491</v>
+        <v>0.740820974111557</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9583333333333333</v>
       </c>
       <c r="B56" t="n">
-        <v>1.424987345411066</v>
+        <v>0.7550373375415802</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9978070175438597</v>
+        <v>0.9583333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>1.407429653301574</v>
+        <v>0.7325427681207657</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>1.394515784163224</v>
+        <v>0.7363380491733551</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9558333333333333</v>
       </c>
       <c r="B59" t="n">
-        <v>1.390961356330336</v>
+        <v>0.7305362969636917</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9967105263157895</v>
+        <v>0.9516666666666667</v>
       </c>
       <c r="B60" t="n">
-        <v>1.436905170741834</v>
+        <v>0.7313626706600189</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>1.400320176492658</v>
+        <v>0.7297758162021637</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9566666666666667</v>
       </c>
       <c r="B62" t="n">
-        <v>1.403606132457131</v>
+        <v>0.727683424949646</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>1.405535904984725</v>
+        <v>0.7247544378042221</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B64" t="n">
-        <v>1.392362605061447</v>
+        <v>0.7302369326353073</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B65" t="n">
-        <v>1.395855939179136</v>
+        <v>0.730441153049469</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9583333333333333</v>
       </c>
       <c r="B66" t="n">
-        <v>1.407071705450091</v>
+        <v>0.7278672754764557</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9516666666666665</v>
       </c>
       <c r="B67" t="n">
-        <v>1.403926297237999</v>
+        <v>0.7320348173379898</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9616666666666666</v>
       </c>
       <c r="B68" t="n">
-        <v>1.403667715557835</v>
+        <v>0.7243508398532867</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.95</v>
       </c>
       <c r="B69" t="n">
-        <v>1.392945576132389</v>
+        <v>0.7249335050582886</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B70" t="n">
-        <v>1.401624434872677</v>
+        <v>0.7337508499622345</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9591666666666666</v>
       </c>
       <c r="B71" t="n">
-        <v>1.443604291531078</v>
+        <v>0.7270764857530594</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>1.40455843063823</v>
+        <v>0.7285286486148834</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9608333333333334</v>
       </c>
       <c r="B73" t="n">
-        <v>1.449589394686515</v>
+        <v>0.7255454808473587</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9558333333333333</v>
       </c>
       <c r="B74" t="n">
-        <v>1.404232278204801</v>
+        <v>0.7306061387062073</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.96</v>
       </c>
       <c r="B75" t="n">
-        <v>1.41373874848349</v>
+        <v>0.7288053631782532</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9541666666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.395331786389936</v>
+        <v>0.7324756681919098</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9624999999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>1.397077142146596</v>
+        <v>0.7230448424816132</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B78" t="n">
-        <v>1.417658134510643</v>
+        <v>0.7189297676086426</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9583333333333333</v>
       </c>
       <c r="B79" t="n">
-        <v>1.406510323808904</v>
+        <v>0.7296487390995026</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9675</v>
       </c>
       <c r="B80" t="n">
-        <v>1.401093961899741</v>
+        <v>0.7204955369234085</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="B81" t="n">
-        <v>1.433385315694307</v>
+        <v>0.7201541364192963</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9608333333333334</v>
       </c>
       <c r="B82" t="n">
-        <v>1.419844334585625</v>
+        <v>0.7192396819591522</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9901315789473685</v>
+        <v>0.9616666666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>1.397510534838626</v>
+        <v>0.7243023365736008</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9633333333333334</v>
       </c>
       <c r="B84" t="n">
-        <v>1.423124049839221</v>
+        <v>0.7329026460647583</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9608333333333334</v>
       </c>
       <c r="B85" t="n">
-        <v>1.396416457075822</v>
+        <v>0.733491376042366</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9608333333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>1.412377175531889</v>
+        <v>0.7374668121337891</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9857456140350878</v>
+        <v>0.9675</v>
       </c>
       <c r="B87" t="n">
-        <v>1.419328041243971</v>
+        <v>0.7331719249486923</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9075</v>
       </c>
       <c r="B88" t="n">
-        <v>1.454059381234018</v>
+        <v>0.7605350166559219</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9890350877192983</v>
+        <v>0.9525</v>
       </c>
       <c r="B89" t="n">
-        <v>1.419422015809176</v>
+        <v>0.7191585451364517</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9675</v>
       </c>
       <c r="B90" t="n">
-        <v>1.408793784024423</v>
+        <v>0.7287354022264481</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9558333333333333</v>
       </c>
       <c r="B91" t="n">
-        <v>1.416410191017285</v>
+        <v>0.7244025468826294</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9583333333333333</v>
       </c>
       <c r="B92" t="n">
-        <v>1.392824049581561</v>
+        <v>0.7279918640851974</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9608333333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.39702628579056</v>
+        <v>0.7183882594108582</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9608333333333334</v>
       </c>
       <c r="B94" t="n">
-        <v>1.390492083733542</v>
+        <v>0.7296933233737946</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9633333333333334</v>
       </c>
       <c r="B95" t="n">
-        <v>1.401445706685384</v>
+        <v>0.7252619415521622</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9608333333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>1.389214471766823</v>
+        <v>0.7248542159795761</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9945175438596491</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>1.395486009748359</v>
+        <v>0.7278308123350143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>1.407883734033819</v>
+        <v>0.7336465716362</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9912280701754386</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B99" t="n">
-        <v>1.398589565042864</v>
+        <v>0.7225004136562347</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9923245614035088</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B100" t="n">
-        <v>1.403996421579729</v>
+        <v>0.7213564217090607</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.392115703800268</v>
+        <v>0.722498431801796</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9583333333333333</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7188885062932968</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9558333333333333</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7189411669969559</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9558333333333333</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7202907055616379</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9633333333333334</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7215017229318619</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9558333333333333</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7132913917303085</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7161461114883423</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7157912999391556</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9633333333333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7172594219446182</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9516666666666667</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7226427495479584</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7189494669437408</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7230814546346664</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7230434566736221</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9566666666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7136754989624023</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7154178768396378</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7180183231830597</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9608333333333334</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.7281202226877213</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9525</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7165179252624512</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7173943519592285</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9533333333333334</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7214167863130569</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7170834392309189</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7175766378641129</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7146638333797455</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7156062871217728</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7176740914583206</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9616666666666666</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7256326228380203</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7163440883159637</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7154360264539719</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7193592637777328</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7130556851625443</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7143770456314087</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.7127408981323242</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7137366235256195</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7194855213165283</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7168541550636292</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.7154180854558945</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7240950912237167</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.7155673056840897</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7132271975278854</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7238893955945969</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7215190231800079</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7131015807390213</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7174442559480667</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7222135066986084</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.7153827399015427</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.7157604992389679</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7192451506853104</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.719893679022789</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7295738756656647</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.7182688564062119</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7202148884534836</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7206350266933441</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9474999999999999</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7142764627933502</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7283799201250076</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7100741416215897</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7152964025735855</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7170567661523819</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7153689712285995</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7109950929880142</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7283561378717422</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7121303975582123</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7139231264591217</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7152533382177353</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7131848335266113</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7136948555707932</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7121738791465759</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7123140692710876</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7174037545919418</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7293700128793716</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7138313949108124</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9516666666666667</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7246059030294418</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7132162004709244</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7277663201093674</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7215046137571335</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7124225646257401</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7115380764007568</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7260928153991699</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9574999999999999</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7233901917934418</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7147281914949417</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7150888890028</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7121955007314682</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7170964777469635</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7167324274778366</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7213667631149292</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7141710072755814</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.714678555727005</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7157261073589325</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7168638408184052</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7215027213096619</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7138678580522537</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7118431329727173</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7205614149570465</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7142997533082962</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7147941887378693</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7162186801433563</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7157446891069412</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.723281130194664</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7226983904838562</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9491666666666666</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7161583602428436</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7134810239076614</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9374999999999999</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7115949541330338</v>
       </c>
     </row>
   </sheetData>
